--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>-24.98350908747488</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.398465598434624</v>
+        <v>-9.531857261791531</v>
       </c>
       <c r="F2" t="n">
-        <v>5.841654165263725</v>
+        <v>5.683709909421171</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.16971783576758</v>
+        <v>-19.49198161240714</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-25.50548457570983</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.900449267501983</v>
+        <v>-9.936119461602994</v>
       </c>
       <c r="F3" t="n">
-        <v>5.824503529174587</v>
+        <v>5.695228409599622</v>
       </c>
       <c r="G3" t="n">
-        <v>-18.94003718216678</v>
+        <v>-19.12245091737824</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-26.01540161660481</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.14204931984432</v>
+        <v>-10.14345246481512</v>
       </c>
       <c r="F4" t="n">
-        <v>5.555647263549201</v>
+        <v>5.494818240111044</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.16567716252985</v>
+        <v>-18.27551847980883</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-26.37788286251192</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.68799493865898</v>
+        <v>-10.62096176550671</v>
       </c>
       <c r="F5" t="n">
-        <v>5.809225382715478</v>
+        <v>5.697448018717202</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.74665993999404</v>
+        <v>-17.69748141991974</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-26.58502085617533</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.34125425820242</v>
+        <v>-11.18034726419851</v>
       </c>
       <c r="F6" t="n">
-        <v>5.723579760420862</v>
+        <v>5.604786671568562</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.32473864737928</v>
+        <v>-17.37213756895402</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-26.58162183217288</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.15095690848027</v>
+        <v>-11.97070411430398</v>
       </c>
       <c r="F7" t="n">
-        <v>5.637044338876468</v>
+        <v>5.603852871256982</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.42035549011675</v>
+        <v>-16.47223274198159</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-26.3613880626331</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.11075695857928</v>
+        <v>-12.87434903152961</v>
       </c>
       <c r="F8" t="n">
-        <v>5.912803882197938</v>
+        <v>5.821403898820964</v>
       </c>
       <c r="G8" t="n">
-        <v>-15.96258799915377</v>
+        <v>-16.03325859341503</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-25.89915963798922</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.64421605385584</v>
+        <v>-13.38876055605266</v>
       </c>
       <c r="F9" t="n">
-        <v>6.035561955619306</v>
+        <v>5.926497990432167</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.80228724200137</v>
+        <v>-15.87781750908833</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-25.21568900339086</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.25765441246826</v>
+        <v>-14.05528375122605</v>
       </c>
       <c r="F10" t="n">
-        <v>6.425328250070366</v>
+        <v>6.295466449671371</v>
       </c>
       <c r="G10" t="n">
-        <v>-14.9181836852228</v>
+        <v>-15.0933959133193</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-24.32803290052985</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.72441278705949</v>
+        <v>-14.45963395316111</v>
       </c>
       <c r="F11" t="n">
-        <v>6.119594205647839</v>
+        <v>6.126878825879543</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.18345884425596</v>
+        <v>-14.42599758591674</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-23.29500564813829</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.83561560181313</v>
+        <v>-15.57397062131644</v>
       </c>
       <c r="F12" t="n">
-        <v>6.51539842357954</v>
+        <v>6.509130716776155</v>
       </c>
       <c r="G12" t="n">
-        <v>-13.67597993147018</v>
+        <v>-13.95312306373499</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-22.17154430586186</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.52211527904472</v>
+        <v>-16.14968051393688</v>
       </c>
       <c r="F13" t="n">
-        <v>6.720418926543618</v>
+        <v>6.66236685900587</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.19282382784731</v>
+        <v>-13.40962194835379</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-21.03517784461982</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.51385032199842</v>
+        <v>-17.33185215237064</v>
       </c>
       <c r="F14" t="n">
-        <v>6.765246230506362</v>
+        <v>6.740815863192387</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.42286880339748</v>
+        <v>-12.78307127332431</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-19.95265107494104</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.65341680102824</v>
+        <v>-17.52016691887047</v>
       </c>
       <c r="F15" t="n">
-        <v>6.698066387148083</v>
+        <v>6.721528731102408</v>
       </c>
       <c r="G15" t="n">
-        <v>-11.79854262649244</v>
+        <v>-12.19229346154004</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-18.98664459099773</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.81056161331027</v>
+        <v>-18.68679640447432</v>
       </c>
       <c r="F16" t="n">
-        <v>6.613951024002811</v>
+        <v>6.706548814062181</v>
       </c>
       <c r="G16" t="n">
-        <v>-11.87146705291934</v>
+        <v>-12.17838912601053</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-18.18638328345928</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.05079998630239</v>
+        <v>-19.81446050534885</v>
       </c>
       <c r="F17" t="n">
-        <v>6.931179123569455</v>
+        <v>7.081032073047265</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.35427368348901</v>
+        <v>-11.66004195095961</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-17.58081499569788</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.57873450381933</v>
+        <v>-20.48108148065957</v>
       </c>
       <c r="F18" t="n">
-        <v>7.071444730581245</v>
+        <v>7.30933891571846</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.88266052507893</v>
+        <v>-11.09041398288161</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-17.18856091852968</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.20554429621276</v>
+        <v>-21.12342853687606</v>
       </c>
       <c r="F19" t="n">
-        <v>6.982631031836868</v>
+        <v>7.23754873888468</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.0196090318693</v>
+        <v>-10.37277622091464</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-16.99964491480575</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.96435238500603</v>
+        <v>-21.8922444227259</v>
       </c>
       <c r="F20" t="n">
-        <v>7.055575014291239</v>
+        <v>7.257926119505981</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.298485408006213</v>
+        <v>-9.726918857767703</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-17.00066692395447</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.75669906090634</v>
+        <v>-22.68133502005284</v>
       </c>
       <c r="F21" t="n">
-        <v>7.17531657047572</v>
+        <v>7.446920457960313</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.775875018967339</v>
+        <v>-9.25319853739798</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-17.14729952532635</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.29509605311848</v>
+        <v>-23.10665417244011</v>
       </c>
       <c r="F22" t="n">
-        <v>7.043293829041549</v>
+        <v>7.328660270856507</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.010119651416185</v>
+        <v>-8.588014930106132</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-17.40067563309807</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.88910549844178</v>
+        <v>-23.69575505486903</v>
       </c>
       <c r="F23" t="n">
-        <v>7.038228817927425</v>
+        <v>7.310849618840336</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.34360134524967</v>
+        <v>-8.037243861513829</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-17.69816115376583</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.30161545283773</v>
+        <v>-24.16640018991946</v>
       </c>
       <c r="F24" t="n">
-        <v>7.314394148818849</v>
+        <v>7.596352952847568</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.916492816349114</v>
+        <v>-7.658125824018909</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-17.994866450524</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.54117678931656</v>
+        <v>-24.40032450148074</v>
       </c>
       <c r="F25" t="n">
-        <v>6.939030868597721</v>
+        <v>7.323922823202467</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.508011403611502</v>
+        <v>-7.335764267242006</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-18.23337354120806</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.81734212020798</v>
+        <v>-24.5629377588812</v>
       </c>
       <c r="F26" t="n">
-        <v>7.069088229271392</v>
+        <v>7.476567395601285</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.983699640182943</v>
+        <v>-6.834279276875072</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-18.38205607774492</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.85436656921113</v>
+        <v>-24.48932398248606</v>
       </c>
       <c r="F27" t="n">
-        <v>7.057545284058605</v>
+        <v>7.414638345618074</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.792691030899443</v>
+        <v>-6.590132051955073</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-18.40582219120104</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.74060915743175</v>
+        <v>-24.36737259519773</v>
       </c>
       <c r="F28" t="n">
-        <v>6.861168545235233</v>
+        <v>7.177267284215619</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.618471271196928</v>
+        <v>-6.513384422158242</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-18.29866237982131</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.93805658875898</v>
+        <v>-24.52741423498619</v>
       </c>
       <c r="F29" t="n">
-        <v>6.581698245701774</v>
+        <v>6.847557550117742</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.31605197343017</v>
+        <v>-6.15108456828551</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-18.05703506478098</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.00582311294129</v>
+        <v>-24.53568643460501</v>
       </c>
       <c r="F30" t="n">
-        <v>6.841006280916075</v>
+        <v>6.978612268192264</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.53999293296921</v>
+        <v>-6.450541127890918</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-17.70293432914928</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.81058062371104</v>
+        <v>-24.38042624353239</v>
       </c>
       <c r="F31" t="n">
-        <v>7.080489393285037</v>
+        <v>7.173571195024231</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.632869396419993</v>
+        <v>-6.512426176812327</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-17.25809409281065</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.90132059116098</v>
+        <v>-24.30287681660939</v>
       </c>
       <c r="F32" t="n">
-        <v>6.838483553372748</v>
+        <v>7.020701728309534</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.736648345183997</v>
+        <v>-6.573548540662498</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-16.75705181954472</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.79298019899015</v>
+        <v>-24.15294075401484</v>
       </c>
       <c r="F33" t="n">
-        <v>7.013906008764523</v>
+        <v>7.079130249376035</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.917932719809203</v>
+        <v>-6.664821409860933</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-16.22676237269249</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.47068708830938</v>
+        <v>-23.83935985357092</v>
       </c>
       <c r="F34" t="n">
-        <v>6.948026641232844</v>
+        <v>7.123625100871828</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.9218048132478</v>
+        <v>-6.598433585615094</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-15.69461370519699</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.31077256269946</v>
+        <v>-23.66101377207273</v>
       </c>
       <c r="F35" t="n">
-        <v>7.517894170647317</v>
+        <v>7.564070840505329</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.445955239449751</v>
+        <v>-7.053565901876808</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-15.18073793471661</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.98802477438007</v>
+        <v>-23.25057186758148</v>
       </c>
       <c r="F36" t="n">
-        <v>7.494334046555654</v>
+        <v>7.64541413675706</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.683365412907141</v>
+        <v>-7.248529717715642</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-14.69978365715487</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.53111774862566</v>
+        <v>-22.86784085401191</v>
       </c>
       <c r="F37" t="n">
-        <v>7.610966194372777</v>
+        <v>7.64541413675706</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.617852720890481</v>
+        <v>-7.146579257519865</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-14.26512857089219</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.01160698994041</v>
+        <v>-22.35995126464932</v>
       </c>
       <c r="F38" t="n">
-        <v>7.246114278915515</v>
+        <v>7.406840379665344</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.710553180094055</v>
+        <v>-7.111050844617994</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.88211503338215</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59742010618912</v>
+        <v>-21.91013818785881</v>
       </c>
       <c r="F39" t="n">
-        <v>7.389376847136724</v>
+        <v>7.458580739337905</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.822623884504346</v>
+        <v>-7.198779183837916</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-13.56101840740268</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.29311365177173</v>
+        <v>-21.58906732889477</v>
       </c>
       <c r="F40" t="n">
-        <v>7.297673745334</v>
+        <v>7.407065273981222</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.981785503056763</v>
+        <v>-7.302357683320376</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-13.30079487189595</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.73935051097687</v>
+        <v>-21.08456582129095</v>
       </c>
       <c r="F41" t="n">
-        <v>7.549961166687412</v>
+        <v>7.570064762924167</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.501746050373768</v>
+        <v>-7.782326154466017</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-13.11131202769024</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.42999860147283</v>
+        <v>-20.7554427680171</v>
       </c>
       <c r="F42" t="n">
-        <v>7.441258988008426</v>
+        <v>7.583035298142092</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.486120784427108</v>
+        <v>-7.758228239618993</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.98797863823194</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.91248255758928</v>
+        <v>-20.35487665739703</v>
       </c>
       <c r="F43" t="n">
-        <v>7.3035845546361</v>
+        <v>7.437445562652232</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.712452468324068</v>
+        <v>-7.934858279706896</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.93599562518552</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.02569982504765</v>
+        <v>-19.47340827531973</v>
       </c>
       <c r="F44" t="n">
-        <v>7.527887300683291</v>
+        <v>7.616324545898916</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.857064402440546</v>
+        <v>-8.020958579640135</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.94207731588545</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.1779460343246</v>
+        <v>-18.70313057641668</v>
       </c>
       <c r="F45" t="n">
-        <v>7.616867225661143</v>
+        <v>7.770680270701154</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.933709363093171</v>
+        <v>-8.192543164641382</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-13.0013921947251</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.75380513259226</v>
+        <v>-18.31142823524632</v>
       </c>
       <c r="F46" t="n">
-        <v>7.520632014492789</v>
+        <v>7.592930648040728</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.046958318158389</v>
+        <v>-8.201382489056765</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-13.09260538555083</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.57966848600648</v>
+        <v>-18.1540559932072</v>
       </c>
       <c r="F47" t="n">
-        <v>7.762975195878896</v>
+        <v>7.792055008723307</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.50710186645869</v>
+        <v>-8.64652656428937</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-13.20509906648487</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.6678295932719</v>
+        <v>-17.27683126909038</v>
       </c>
       <c r="F48" t="n">
-        <v>7.859914424036086</v>
+        <v>7.792138121840044</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.410685762036261</v>
+        <v>-8.622115753002864</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-13.31782154527643</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.23091860560318</v>
+        <v>-16.8374904450088</v>
       </c>
       <c r="F49" t="n">
-        <v>7.817238283094786</v>
+        <v>7.765160581948408</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.679400246462507</v>
+        <v>-8.895029894327791</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-13.42122868823549</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.75901210678109</v>
+        <v>-16.33505209830282</v>
       </c>
       <c r="F50" t="n">
-        <v>7.696763375880267</v>
+        <v>7.65500147922308</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.479784449652019</v>
+        <v>-9.546817622804291</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-13.50222886016427</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.13993672325111</v>
+        <v>-15.78437880984786</v>
       </c>
       <c r="F51" t="n">
-        <v>7.774562142153485</v>
+        <v>7.669096486020396</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.564770056019603</v>
+        <v>-9.651691709106483</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-13.5578660940059</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.44731600942214</v>
+        <v>-15.158429482663</v>
       </c>
       <c r="F52" t="n">
-        <v>7.788945600355949</v>
+        <v>7.664486152544895</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.962295204368457</v>
+        <v>-9.995633342193949</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.58664909795688</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.30003956656319</v>
+        <v>-15.05757416000541</v>
       </c>
       <c r="F53" t="n">
-        <v>7.909537843735273</v>
+        <v>7.76309742105057</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.45119589105995</v>
+        <v>-10.47887744794042</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.59132925956044</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.76341239483687</v>
+        <v>-14.62595307776669</v>
       </c>
       <c r="F54" t="n">
-        <v>7.980922232999098</v>
+        <v>7.795271975241737</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.41586792743962</v>
+        <v>-10.66462059682826</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.5809080225818</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.32302043427891</v>
+        <v>-14.16012850348704</v>
       </c>
       <c r="F55" t="n">
-        <v>7.934227328413193</v>
+        <v>7.763053419988768</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.11568037036983</v>
+        <v>-11.18496737568775</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.56148748645826</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.0327845416245</v>
+        <v>-13.91573193921683</v>
       </c>
       <c r="F56" t="n">
-        <v>7.851583556334863</v>
+        <v>7.639038871802603</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.43379338017938</v>
+        <v>-11.59331189623309</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.54799771448159</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.73975213704222</v>
+        <v>-13.66124935378017</v>
       </c>
       <c r="F57" t="n">
-        <v>7.954634043075696</v>
+        <v>7.69891453890171</v>
       </c>
       <c r="G57" t="n">
-        <v>-11.90917596288386</v>
+        <v>-12.11847923586336</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.54670238346417</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.26592914752829</v>
+        <v>-13.26487801105191</v>
       </c>
       <c r="F58" t="n">
-        <v>7.72831213719247</v>
+        <v>7.498132804891247</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.3254113405124</v>
+        <v>-12.4456369083767</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.57276220353001</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.0762650151332</v>
+        <v>-13.13686914425547</v>
       </c>
       <c r="F59" t="n">
-        <v>7.942039961386524</v>
+        <v>7.668495138175765</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.11796100113546</v>
+        <v>-12.37157823235668</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.62746526262366</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.5032685213239</v>
+        <v>-12.59573430819786</v>
       </c>
       <c r="F60" t="n">
-        <v>7.815527130691366</v>
+        <v>7.635953908469579</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.23977549623152</v>
+        <v>-12.53598086627042</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.72076165815041</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.18667599264995</v>
+        <v>-12.37022397745454</v>
       </c>
       <c r="F61" t="n">
-        <v>7.619179725909194</v>
+        <v>7.363386886632204</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.30994252278548</v>
+        <v>-12.67289261457151</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.84580869924112</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.09371641608243</v>
+        <v>-12.28875845603114</v>
       </c>
       <c r="F62" t="n">
-        <v>7.609157261832018</v>
+        <v>7.527305508866128</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.72749304326122</v>
+        <v>-13.06776303219163</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.00465087831872</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.93917979802612</v>
+        <v>-12.20898941999055</v>
       </c>
       <c r="F63" t="n">
-        <v>7.745223211945128</v>
+        <v>7.593546662905959</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.65142498541889</v>
+        <v>-13.00964251855775</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.18232195236401</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.27226294686217</v>
+        <v>-12.46539338512591</v>
       </c>
       <c r="F64" t="n">
-        <v>7.471404604349823</v>
+        <v>7.434419267401611</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.00443083723761</v>
+        <v>-13.38045413338578</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.37381415728599</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.13070175303064</v>
+        <v>-12.40470614288689</v>
       </c>
       <c r="F65" t="n">
-        <v>7.715307378926476</v>
+        <v>7.633729410345133</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.14460355311893</v>
+        <v>-13.49403554091795</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.56100818629379</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.98223239249617</v>
+        <v>-12.31382439423781</v>
       </c>
       <c r="F66" t="n">
-        <v>7.42475370082572</v>
+        <v>7.401501584166673</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.38864810889473</v>
+        <v>-13.67109092460327</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.7389390652696</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.16572170921835</v>
+        <v>-12.53011894703699</v>
       </c>
       <c r="F67" t="n">
-        <v>7.235989145694134</v>
+        <v>7.271864678083556</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.33881446190026</v>
+        <v>-13.7385592193667</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.89382547834866</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.10555270170723</v>
+        <v>-12.46350622847528</v>
       </c>
       <c r="F68" t="n">
-        <v>7.376650762262144</v>
+        <v>7.39054043077105</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.44940868623675</v>
+        <v>-13.77386762695956</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.02236000006428</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.5486629500832</v>
+        <v>-12.87345923227983</v>
       </c>
       <c r="F69" t="n">
-        <v>7.528630429727063</v>
+        <v>7.499658175033725</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.17898304940708</v>
+        <v>-13.49138081018921</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.11422417786923</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.35648097915164</v>
+        <v>-12.74624238459584</v>
       </c>
       <c r="F70" t="n">
-        <v>7.533548770635178</v>
+        <v>7.58707850682103</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.16248754023811</v>
+        <v>-13.49624537202179</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.16834406062792</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.65907139215874</v>
+        <v>-13.02701315995589</v>
       </c>
       <c r="F71" t="n">
-        <v>7.356503164963588</v>
+        <v>7.461514143458054</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.15663051001154</v>
+        <v>-13.44349298792778</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.18292402743381</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.72778638367323</v>
+        <v>-13.07102399977186</v>
       </c>
       <c r="F72" t="n">
-        <v>7.415244582469571</v>
+        <v>7.513841183954645</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.4025866674723</v>
+        <v>-13.73299064054528</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.1625851447485</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.97019312214861</v>
+        <v>-13.42703659081374</v>
       </c>
       <c r="F73" t="n">
-        <v>7.389244843951317</v>
+        <v>7.528151307054104</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.42452853029102</v>
+        <v>-13.65921552692353</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.11345569776761</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.17073529482259</v>
+        <v>-13.64524274529789</v>
       </c>
       <c r="F74" t="n">
-        <v>7.357999201064864</v>
+        <v>7.460414116912998</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.31240893581205</v>
+        <v>-13.60770006156685</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.04225508179703</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.674958129035</v>
+        <v>-14.15652530542612</v>
       </c>
       <c r="F75" t="n">
-        <v>7.316882653314109</v>
+        <v>7.453545062264983</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.45226386624702</v>
+        <v>-13.75081595958205</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.95903478894136</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.8298076435308</v>
+        <v>-14.39447326963887</v>
       </c>
       <c r="F76" t="n">
-        <v>7.417117072099599</v>
+        <v>7.623653167192421</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.49570269225956</v>
+        <v>-13.80246831713101</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.86815581117424</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.23834283534394</v>
+        <v>-14.84444768365599</v>
       </c>
       <c r="F77" t="n">
-        <v>7.448577831288197</v>
+        <v>7.585738918939496</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.17402559644403</v>
+        <v>-13.50562248719253</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.7788518519575</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.77433932518443</v>
+        <v>-15.26257510694203</v>
       </c>
       <c r="F78" t="n">
-        <v>7.389044394669773</v>
+        <v>7.556869333390363</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.98518281720257</v>
+        <v>-13.40737300519501</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.69024058539485</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.92833815248538</v>
+        <v>-15.3573142820091</v>
       </c>
       <c r="F79" t="n">
-        <v>7.5484113515106</v>
+        <v>7.768871338160396</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.97687639453568</v>
+        <v>-13.33636506945994</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.60782927238675</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.49978483111787</v>
+        <v>-15.95438424563109</v>
       </c>
       <c r="F80" t="n">
-        <v>7.584536223250235</v>
+        <v>7.781744093240983</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.80435312021599</v>
+        <v>-13.19801106413311</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.52438449934466</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.33237781154662</v>
+        <v>-16.75256350672363</v>
       </c>
       <c r="F81" t="n">
-        <v>7.525692136600046</v>
+        <v>7.741346229499665</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.41340857511</v>
+        <v>-12.7751070811381</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.44179018723079</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.14294581603992</v>
+        <v>-17.55012186394406</v>
       </c>
       <c r="F82" t="n">
-        <v>7.584223326810752</v>
+        <v>7.741571123815543</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.3569014337422</v>
+        <v>-12.73281228273242</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-14.34915306019557</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.96787772270821</v>
+        <v>-18.3307007003157</v>
       </c>
       <c r="F83" t="n">
-        <v>7.732726910393294</v>
+        <v>7.929450768704218</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.28949669606804</v>
+        <v>-12.75046648652885</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-14.2475677026333</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.16726355432039</v>
+        <v>-19.46771747132664</v>
       </c>
       <c r="F84" t="n">
-        <v>7.387802586925577</v>
+        <v>7.607847007991685</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.00818812995262</v>
+        <v>-12.46938770373618</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-14.12583050235444</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.14833078429047</v>
+        <v>-20.48491446204323</v>
       </c>
       <c r="F85" t="n">
-        <v>7.867487495672937</v>
+        <v>8.097344153520943</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.1764286342569</v>
+        <v>-12.6096044206793</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.98644316775864</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.33651590117055</v>
+        <v>-21.55492250493624</v>
       </c>
       <c r="F86" t="n">
-        <v>7.917233140543797</v>
+        <v>8.025935319222784</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.52270974806797</v>
+        <v>-12.17430680527666</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.82070775749437</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.29587105164467</v>
+        <v>-22.51241494379406</v>
       </c>
       <c r="F87" t="n">
-        <v>7.981108015260041</v>
+        <v>8.150663662411517</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.40371132092726</v>
+        <v>-11.98123992410219</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.63436127863392</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.60682401995984</v>
+        <v>-23.73742406039574</v>
       </c>
       <c r="F88" t="n">
-        <v>8.01632353172243</v>
+        <v>8.173857110988163</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.42484160860606</v>
+        <v>-12.04074402667941</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.42330095899474</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.85575015815447</v>
+        <v>-25.08321609164455</v>
       </c>
       <c r="F89" t="n">
-        <v>7.815512463670765</v>
+        <v>8.07567118607991</v>
       </c>
       <c r="G89" t="n">
-        <v>-10.88715841139649</v>
+        <v>-11.48826180568368</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.19700025091026</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.51331171280301</v>
+        <v>-26.75226925693378</v>
       </c>
       <c r="F90" t="n">
-        <v>7.901500316446064</v>
+        <v>8.185639617537428</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.04946366136433</v>
+        <v>-11.63941523098809</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.95711340904382</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.51224328292702</v>
+        <v>-28.60491929709626</v>
       </c>
       <c r="F91" t="n">
-        <v>8.038871631392642</v>
+        <v>8.349885803231436</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.61635632103807</v>
+        <v>-11.26259502672062</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.71643489384575</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.30490520883246</v>
+        <v>-30.47946475451223</v>
       </c>
       <c r="F92" t="n">
-        <v>8.040191663246707</v>
+        <v>8.375572645310207</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.66405347203169</v>
+        <v>-11.21509832500855</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.48262076915593</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.99814429109232</v>
+        <v>-32.11085545540217</v>
       </c>
       <c r="F93" t="n">
-        <v>8.019550276254593</v>
+        <v>8.288650992223326</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.67935117451827</v>
+        <v>-11.29307309552897</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.26971617944012</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.01711101135695</v>
+        <v>-34.18734867496636</v>
       </c>
       <c r="F94" t="n">
-        <v>7.821853505577153</v>
+        <v>8.176022941030206</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.02119307009418</v>
+        <v>-10.62529831459766</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.08872108138599</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.43407222462966</v>
+        <v>-36.49631172654892</v>
       </c>
       <c r="F95" t="n">
-        <v>7.679994082326749</v>
+        <v>8.015076834971365</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.457730139675366</v>
+        <v>-10.13136195083324</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.95485557220719</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.25512216890784</v>
+        <v>-38.39328794747028</v>
       </c>
       <c r="F96" t="n">
-        <v>7.322783684602475</v>
+        <v>7.747178814691894</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.887486156732141</v>
+        <v>-9.51063897198912</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.87532416051174</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.90048311598221</v>
+        <v>-41.01311361167876</v>
       </c>
       <c r="F97" t="n">
-        <v>7.052524274006283</v>
+        <v>7.450596991124232</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.413404049854265</v>
+        <v>-9.004729430407629</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.86726094090107</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.9187384857477</v>
+        <v>-43.06002833969811</v>
       </c>
       <c r="F98" t="n">
-        <v>6.741133648638737</v>
+        <v>7.076763970052448</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.942700246721428</v>
+        <v>-8.572516778338013</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.92423518948474</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.65474162013468</v>
+        <v>-45.77195311526553</v>
       </c>
       <c r="F99" t="n">
-        <v>6.406490906612142</v>
+        <v>6.733404128782144</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.628185545965922</v>
+        <v>-8.30347961945855</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.06875788163858</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.13505947339574</v>
+        <v>-48.17415686131046</v>
       </c>
       <c r="F100" t="n">
-        <v>5.90009246434396</v>
+        <v>6.189022992164899</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.353012683468481</v>
+        <v>-7.946014993377196</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.26137052156268</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.25521030202976</v>
+        <v>-50.31655389344066</v>
       </c>
       <c r="F101" t="n">
-        <v>5.745761184576055</v>
+        <v>5.963854891902264</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.100832820266142</v>
+        <v>-7.622616967144507</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.55616033807459</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.0987826786921</v>
+        <v>-52.2746011436401</v>
       </c>
       <c r="F102" t="n">
-        <v>5.304357199596639</v>
+        <v>5.489508778653575</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.091607264308273</v>
+        <v>-7.540642989006943</v>
       </c>
     </row>
   </sheetData>
